--- a/Development/CommandsRequirement.xlsx
+++ b/Development/CommandsRequirement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
   <si>
     <t>Commands</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>User email</t>
+  </si>
+  <si>
+    <t>Verified</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -281,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -342,6 +348,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -638,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -649,9 +664,10 @@
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="24" customHeight="1" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -661,8 +677,11 @@
       <c r="C1" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="D1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
@@ -672,8 +691,11 @@
       <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="D2" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="19"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -681,15 +703,17 @@
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="20"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="D4" s="36"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
@@ -699,8 +723,11 @@
       <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D5" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" s="22"/>
       <c r="B6" s="8" t="s">
         <v>3</v>
@@ -708,8 +735,9 @@
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D6" s="36"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="23" t="s">
         <v>11</v>
       </c>
@@ -717,8 +745,12 @@
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="23" t="s">
         <v>12</v>
       </c>
@@ -728,8 +760,11 @@
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D8" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
       <c r="A9" s="24" t="s">
         <v>14</v>
       </c>
@@ -737,8 +772,11 @@
         <v>2</v>
       </c>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D9" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1">
       <c r="A10" s="24" t="s">
         <v>15</v>
       </c>
@@ -748,8 +786,11 @@
       <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="D10" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="25" t="s">
         <v>16</v>
       </c>
@@ -759,15 +800,19 @@
       <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D11" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
       <c r="B12" s="1"/>
       <c r="C12" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="D12" s="36"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="26" t="s">
         <v>18</v>
       </c>
@@ -777,15 +822,19 @@
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D13" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1">
       <c r="A14" s="20"/>
       <c r="B14" s="13"/>
       <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="D14" s="36"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="27" t="s">
         <v>20</v>
       </c>
@@ -795,14 +844,18 @@
       <c r="C15" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="D15" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1">
       <c r="A16" s="20"/>
       <c r="B16" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="3"/>
+      <c r="D16" s="36"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="18" t="s">
@@ -813,6 +866,9 @@
       </c>
       <c r="C17" s="16" t="s">
         <v>7</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1">
@@ -821,6 +877,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="5"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5">
@@ -831,6 +888,9 @@
         <v>2</v>
       </c>
       <c r="C19" s="7"/>
+      <c r="D19" s="34" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1">
       <c r="A20" s="20"/>
@@ -838,6 +898,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="5"/>
+      <c r="D20" s="36"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="18" t="s">
@@ -848,6 +909,9 @@
       </c>
       <c r="C21" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1">
@@ -856,6 +920,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="5"/>
+      <c r="D22" s="36"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="31" t="s">
@@ -865,6 +930,9 @@
         <v>2</v>
       </c>
       <c r="C23" s="17"/>
+      <c r="D23" s="34" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1">
       <c r="A24" s="33"/>
@@ -872,6 +940,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="3"/>
+      <c r="D24" s="36"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="18" t="s">
@@ -880,6 +949,9 @@
       <c r="B25" s="29"/>
       <c r="C25" s="6" t="s">
         <v>26</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1">
@@ -888,6 +960,7 @@
       <c r="C26" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="D26" s="36"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="21"/>
@@ -897,6 +970,18 @@
       <c r="A28" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
